--- a/biology/Histoire de la zoologie et de la botanique/Michel_Tarrier/Michel_Tarrier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Michel_Tarrier/Michel_Tarrier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Tarrier est un entomologiste, écologue, essayiste, polémiste, philosophe de l'écologie (écosophe) et militant écologiste (dénataliste) français né en 1947 à Paris.
 </t>
@@ -511,9 +523,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spécialiste des coléoptères Carabidae du monde de 1965 à 1996, puis des lépidoptères de la Méditerranée occidentale (notamment Rhopalocères et Zygaeninae) de 1990 à ce jour, Michel Tarrier a consacré sa vie à l'entomologie et publié plus d'une centaine d'articles dans les Revues scientifiques francophones. Il est l'auteur de la découverte d'insectes nouveaux pour la science, dont cinq portent son nom : Carabus solieri[1] tarrieri Ochs, 1965 (France), Zerynthia rumina tarrieri Binagot, 1998 (Maroc)[2], l'Azuré de Tarrier (Plebeius antiatlasicus Tarrier, 1995) (Maroc), Carcharodus lavatherae tarrieri Krajcik, 2017 (Maroc) et Carabus monilis tarrierianus Deuve, 2020 (France).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spécialiste des coléoptères Carabidae du monde de 1965 à 1996, puis des lépidoptères de la Méditerranée occidentale (notamment Rhopalocères et Zygaeninae) de 1990 à ce jour, Michel Tarrier a consacré sa vie à l'entomologie et publié plus d'une centaine d'articles dans les Revues scientifiques francophones. Il est l'auteur de la découverte d'insectes nouveaux pour la science, dont cinq portent son nom : Carabus solieri tarrieri Ochs, 1965 (France), Zerynthia rumina tarrieri Binagot, 1998 (Maroc), l'Azuré de Tarrier (Plebeius antiatlasicus Tarrier, 1995) (Maroc), Carcharodus lavatherae tarrieri Krajcik, 2017 (Maroc) et Carabus monilis tarrierianus Deuve, 2020 (France).
 Son ouvrage naturaliste (Les Papillons de jour du Maroc, guide de détermination et de bio-indication, paru aux Éditions Biotope) a été récompensé par le prix Constant du meilleur livre entomologique pour l'année 2008, décerné par la Société entomologique de France.
 Après plusieurs décennies d'entomologie de terrain en France, en Italie et en Espagne, Michel Tarrier prospecte la biodiversité du Maroc (et aussi Géographie du Maroc) depuis 1990 pour l’établissement d’une cartographie entomologique, ainsi que d’une banque de données très importante et documentée des écosystèmes de ce pays. Il tente par le biais des médias de participer aux efforts de préservation et de pérennisation des habitats botaniques et entomologiques de l'Afrique berbérique, entretenant des projets de conservation concernant notamment la forêt d’arganiers du Souss et de l'Anti-Atlas, et  la forêt de cèdres de la région d’Ifrane, ville située dans le Moyen Atlas. Il s'investit également dans la sauvegarde et la protection de la flore, la faune, principalement les invertébrés, étant très concerné par la menace qui plane au Maroc, comme partout, sur les écosystèmes malmenés, notamment par la pression du surpâturage.
 En 2014, à partir de sa base de données, Michel Tarrier fut l'expert de l'UICN (Union internationale pour la conservation de la nature) pour le Maroc dans le cadre de l'élaboration de la Liste Rouge des Papillons de la Méditerranée.
@@ -545,9 +559,11 @@
           <t>Engagement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Tarrier est aussi une figure de l'écologisme radical, très actif sur le Web[réf. souhaitée] et l'auteur de plusieurs essais d'écosophie  publiés par les Éditions du Temps : 2050, Sauve qui peut la Terre (2007), et Faire des enfants tue, éloge de la dénatalité[3] (2008), ouvrage complété et nouvellement publié en 2011 sous le titre de Faire des enfants tue la Planète[4] par les Éditions LME, traitant des dangers de la surpopulation et prônant l'adoption d'une politique de dénatalité philanthropique pour éviter l'épuisement des ressources naturelles. Il a aussi publié Nous, Peuple dernier. Survivre sera bientôt un luxe (L’Harmattan, 2009) et un opus polémique[réf. souhaitée] : Dictature verte (Les Presses du Midi, 2010). Deux autres livres sont sortis en 2012 : L'Agroterrorisme dans nos assiettes[5] (Éditions LME), un procès de l'agriculture, et Les Orphelins de Gaïa (Les Presses du Midi), où il s'indigne sur l'héritage laissé aux générations futures. En 2014, il est co-auteur dans l'ouvrage collectif Moins nombreux, plus heureux. L'Urgence écologique de repenser la démographie, dirigé par Michel Sourouille, paru aux Éditions Le Sang de la Terre. Il est aussi l'auteur de La Route du Safran. Des origines à nos jours, publié par les Éditions Les Presses du Midi.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Tarrier est aussi une figure de l'écologisme radical, très actif sur le Web[réf. souhaitée] et l'auteur de plusieurs essais d'écosophie  publiés par les Éditions du Temps : 2050, Sauve qui peut la Terre (2007), et Faire des enfants tue, éloge de la dénatalité (2008), ouvrage complété et nouvellement publié en 2011 sous le titre de Faire des enfants tue la Planète par les Éditions LME, traitant des dangers de la surpopulation et prônant l'adoption d'une politique de dénatalité philanthropique pour éviter l'épuisement des ressources naturelles. Il a aussi publié Nous, Peuple dernier. Survivre sera bientôt un luxe (L’Harmattan, 2009) et un opus polémique[réf. souhaitée] : Dictature verte (Les Presses du Midi, 2010). Deux autres livres sont sortis en 2012 : L'Agroterrorisme dans nos assiettes (Éditions LME), un procès de l'agriculture, et Les Orphelins de Gaïa (Les Presses du Midi), où il s'indigne sur l'héritage laissé aux générations futures. En 2014, il est co-auteur dans l'ouvrage collectif Moins nombreux, plus heureux. L'Urgence écologique de repenser la démographie, dirigé par Michel Sourouille, paru aux Éditions Le Sang de la Terre. Il est aussi l'auteur de La Route du Safran. Des origines à nos jours, publié par les Éditions Les Presses du Midi.
 Il fut l'initiateur du Groupe Écorésistance qui réunit 17 000 membres (novembre 2014) sur Facebook[réf. souhaitée].
 En novembre 2021, à l'occasion de la publication de son manifeste Vivre veg, c'est woke !, il propose d'intégrer l'antispécisme au wokisme égalitariste[réf. souhaitée].
 </t>
@@ -578,7 +594,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(fr) Michel Tarrier, Nausea. Le délire alimentaire, Edilivre, 2024.  (ISBN 9782414629558).
 (fr) Michel Tarrier, Les bachi-bouzouks face aux défis planétaires, Edilivre, 2023.  (ISBN 9782414624805).
